--- a/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9DBED9-6311-4503-8EEE-D03E857612DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608ECB2B-D7A3-4461-BFD2-86C5A8549976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -466,9 +466,6 @@
     <t xml:space="preserve">Describe the applied parameters for RNA extraction </t>
   </si>
   <si>
-    <t>annotationTableGoodDingo20</t>
-  </si>
-  <si>
     <t>GEO - Minimal information RNA extraction</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>DPBO:1000171</t>
+  </si>
+  <si>
+    <t>annotationTableGoodDingo21</t>
   </si>
 </sst>
 </file>
@@ -483,7 +483,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+    <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -641,7 +641,7 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -682,46 +682,46 @@
   </cellStyles>
   <dxfs count="16">
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
+      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;milligram&quot;"/>
+      <numFmt numFmtId="165" formatCode="0.00\ &quot;milligram&quot;"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1502,7 +1502,7 @@
         <v>94</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>43</v>
@@ -1516,7 +1516,7 @@
         <v>85</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>

--- a/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608ECB2B-D7A3-4461-BFD2-86C5A8549976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD6031-8E4B-4A7F-A6FB-8936AC1DED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extraction" sheetId="1" r:id="rId1"/>
@@ -379,9 +379,6 @@
     <t>c3e74480-a15b-4ba8-9a82-bb5aeddcbec6</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Template to describe the extraction of RNA with the minimal information required by GEO.</t>
   </si>
   <si>
@@ -476,6 +473,9 @@
   </si>
   <si>
     <t>annotationTableGoodDingo21</t>
+  </si>
+  <si>
+    <t>1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C1" t="s">
         <v>91</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>92</v>
-      </c>
-      <c r="D1" t="s">
-        <v>93</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1212,13 +1212,13 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" t="s">
-        <v>95</v>
       </c>
       <c r="E2" t="s">
         <v>66</v>
@@ -1271,16 +1271,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
         <v>94</v>
       </c>
-      <c r="C3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>95</v>
-      </c>
-      <c r="E3" t="s">
-        <v>96</v>
       </c>
       <c r="F3" t="s">
         <v>71</v>
@@ -1327,13 +1327,13 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
         <v>94</v>
-      </c>
-      <c r="C4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" t="s">
-        <v>95</v>
       </c>
       <c r="I4" t="s">
         <v>72</v>
@@ -1356,13 +1356,13 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" t="s">
-        <v>95</v>
       </c>
       <c r="I5" t="s">
         <v>72</v>
@@ -1395,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEA034A-A788-4F64-B4C6-B449FB9D6D64}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1428,7 +1428,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1436,7 +1436,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1452,7 +1452,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1474,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1482,7 +1482,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1499,10 +1499,10 @@
         <v>42</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>43</v>
@@ -1513,10 +1513,10 @@
         <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -1526,10 +1526,10 @@
         <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
@@ -1545,7 +1545,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1567,7 +1567,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1593,7 +1593,7 @@
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,16 +1738,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>108</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>109</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -1755,7 +1755,7 @@
         <v>62</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I4" s="12" t="s">
         <v>60</v>
@@ -1775,13 +1775,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>98</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
@@ -1809,13 +1809,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
@@ -1825,7 +1825,7 @@
         <v>62</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="12" t="s">
         <v>63</v>
@@ -1845,13 +1845,13 @@
         <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>101</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -1859,7 +1859,7 @@
         <v>62</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I7" s="12" t="s">
         <v>63</v>
@@ -1879,13 +1879,13 @@
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>103</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>104</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -1893,7 +1893,7 @@
         <v>62</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="12" t="s">
         <v>63</v>
@@ -1913,13 +1913,13 @@
         <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>105</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>106</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
@@ -1929,7 +1929,7 @@
         <v>62</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="12" t="s">
         <v>63</v>

--- a/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\SWATE_templates\templates\dataplant\GEO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDAD6031-8E4B-4A7F-A6FB-8936AC1DED95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE84844-5E78-4F3B-B962-9CBB5A5FE6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Extraction" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="4" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="4" r:id="rId2"/>
     <sheet name="GEO_RNASEQ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -51,75 +51,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6788F75D-CE6E-40E9-8273-C598A6C05E82}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=c3e74480-a15b-4ba8-9a82-bb5aeddcbec6</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{098799CA-B623-4F81-BD61-3884D4C475B4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{274EBE8F-6519-4A68-981E-9E5475AB341D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{CE96AF42-A7E6-410D-9AC8-58AE31029A5B}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{86BA4BEB-993D-4D3C-8F20-DE4DE7C82963}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{84527099-8650-4828-BDE6-1223709EE6BC}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{AA92370E-FF18-4B36-8787-1362E81A85F4}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{7190956A-5955-47A9-80AF-3FAA6862848F}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms.</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{AF507E5A-E9F7-4C32-A11C-B1F790ACEB79}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
   <si>
     <t>Source Name</t>
   </si>
@@ -677,8 +677,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{F5E1E0D5-7FB4-4F22-8D3C-EFCDC257DFA2}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
@@ -1114,35 +1114,35 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="31" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="31.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="29.88671875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="43.6640625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="23" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>93</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>93</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>93</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>93</v>
       </c>
@@ -1393,21 +1393,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFEA034A-A788-4F64-B4C6-B449FB9D6D64}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1415,7 +1415,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -1439,7 +1439,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1455,13 +1455,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
@@ -1485,62 +1485,53 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>42</v>
+        <v>93</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="9" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="7" t="s">
         <v>113</v>
       </c>
+      <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
@@ -1548,7 +1539,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>35</v>
       </c>
@@ -1556,13 +1547,13 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -1570,25 +1561,25 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="7"/>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>41</v>
       </c>
@@ -1596,25 +1587,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="7"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="7"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B26" s="7"/>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
         <v>79</v>
       </c>
@@ -1634,23 +1625,23 @@
       <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -1688,7 +1679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1703,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
@@ -1736,7 +1727,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>106</v>
       </c>
@@ -1770,7 +1761,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
@@ -1804,7 +1795,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>5</v>
       </c>
@@ -1840,7 +1831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>9</v>
       </c>
@@ -1874,7 +1865,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
         <v>12</v>
       </c>
@@ -1908,7 +1899,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
         <v>15</v>
       </c>

--- a/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
+++ b/templates/dataplant/GEO/Extraction_GEO_minimal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE84844-5E78-4F3B-B962-9CBB5A5FE6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80F2B1EB-4B85-4393-A649-DB2467A0B466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="116">
   <si>
     <t>Source Name</t>
   </si>
@@ -259,9 +259,6 @@
     <t>GEO</t>
   </si>
   <si>
-    <t>Extraction</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -466,16 +463,19 @@
     <t>GEO - Minimal information RNA extraction</t>
   </si>
   <si>
-    <t>MINSEQ</t>
-  </si>
-  <si>
-    <t>DPBO:1000171</t>
-  </si>
-  <si>
     <t>annotationTableGoodDingo21</t>
   </si>
   <si>
     <t>1.0.0</t>
+  </si>
+  <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>extraction</t>
+  </si>
+  <si>
+    <t>OBI:0302884</t>
   </si>
 </sst>
 </file>
@@ -1147,13 +1147,13 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>91</v>
-      </c>
-      <c r="D1" t="s">
-        <v>92</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -1212,175 +1212,175 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
         <v>93</v>
       </c>
-      <c r="C2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" t="s">
-        <v>94</v>
-      </c>
       <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J2" t="s">
-        <v>73</v>
-      </c>
-      <c r="K2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" t="s">
-        <v>67</v>
-      </c>
       <c r="M2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="O2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R2">
         <v>200</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>94</v>
       </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
       <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
         <v>71</v>
       </c>
-      <c r="G3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>72</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>73</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" t="s">
+        <v>70</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>70</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="L3" t="s">
-        <v>68</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" t="s">
-        <v>70</v>
-      </c>
-      <c r="P3" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>71</v>
-      </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" t="s">
         <v>93</v>
       </c>
-      <c r="C4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
-        <v>94</v>
-      </c>
       <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" t="s">
         <v>72</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>73</v>
       </c>
-      <c r="K4" t="s">
+      <c r="S4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" t="s">
         <v>93</v>
       </c>
-      <c r="C5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" t="s">
-        <v>94</v>
-      </c>
       <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
+      <c r="S5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1412,7 +1412,7 @@
         <v>19</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1420,7 +1420,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1428,7 +1428,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
@@ -1436,7 +1436,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1444,7 +1444,7 @@
         <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1452,7 +1452,7 @@
         <v>24</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1474,7 +1474,7 @@
         <v>27</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1482,7 +1482,7 @@
         <v>28</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1496,21 +1496,19 @@
         <v>30</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>43</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1519,9 +1517,7 @@
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>85</v>
-      </c>
+      <c r="B14" s="7"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
     </row>
@@ -1536,7 +1532,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1544,7 +1540,7 @@
         <v>35</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1558,7 +1554,7 @@
         <v>37</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1584,30 +1580,30 @@
         <v>41</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B27" s="10"/>
     </row>
@@ -1643,40 +1639,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="H1" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="J1" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="L1" s="11" t="s">
         <v>54</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -1684,13 +1680,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
@@ -1700,7 +1696,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1708,13 +1704,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1724,41 +1720,41 @@
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="C4" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>108</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="L4" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1766,33 +1762,33 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>96</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>97</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="I5" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="J5" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="K5" s="12"/>
       <c r="L5" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1800,35 +1796,35 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>99</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G6" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I6" s="12" t="s">
+      <c r="J6" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K6" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="L6" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1836,33 +1832,33 @@
         <v>9</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>100</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>101</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="12" t="s">
+      <c r="J7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="L7" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1870,33 +1866,33 @@
         <v>12</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>102</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I8" s="12" t="s">
+      <c r="J8" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="L8" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1904,35 +1900,35 @@
         <v>15</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>104</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>105</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" s="12" t="s">
+      <c r="J9" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>65</v>
-      </c>
       <c r="L9" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
